--- a/nbcc.cn.xlsx
+++ b/nbcc.cn.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>爬虫</t>
   </si>
@@ -41,27 +41,6 @@
   </si>
   <si>
     <t>域名</t>
-  </si>
-  <si>
-    <t>*.webvpn.nbcc.cn</t>
-  </si>
-  <si>
-    <t>webvpn.nbcc.cn</t>
-  </si>
-  <si>
-    <t>*.nbcc.cn</t>
-  </si>
-  <si>
-    <t>nbcc.cn</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>mail.nbcc.cn</t>
-  </si>
-  <si>
-    <t>zhsj.nbcc.cn</t>
   </si>
   <si>
     <t>子域名</t>
@@ -499,13 +478,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -519,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,38 +518,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -596,10 +543,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -634,31 +581,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -693,31 +640,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -748,16 +695,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -788,7 +735,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -822,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -852,16 +799,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
